--- a/storage/excel/summary9_by_tool_renew.xlsx
+++ b/storage/excel/summary9_by_tool_renew.xlsx
@@ -4,10 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="37" r:id="rId1"/>
+    <sheet name="2" sheetId="38" r:id="rId2"/>
+    <sheet name="3" sheetId="39" r:id="rId3"/>
+    <sheet name="4" sheetId="40" r:id="rId4"/>
+    <sheet name="5" sheetId="41" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="30">
   <si>
     <t>อุปกรณ์ในหมวดประกอบอาหาร</t>
   </si>
@@ -110,6 +114,18 @@
   <si>
     <t xml:space="preserve">  ใช้วัสดุเหลือใช้ทางการเกษตร</t>
   </si>
+  <si>
+    <t>เตาอังโล่</t>
+  </si>
+  <si>
+    <t>เตาประสิทธิภาพสูง</t>
+  </si>
+  <si>
+    <t>เตาเศรษฐกิจ</t>
+  </si>
+  <si>
+    <t>เตาเหล็ก3ขา</t>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +135,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="187" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +173,32 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
@@ -198,7 +240,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -221,6 +263,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -228,6 +290,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -248,6 +319,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -264,6 +347,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -550,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -591,262 +693,262 @@
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1"/>
     <row r="2" spans="1:44" s="2" customFormat="1">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="16" t="s">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="L2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="16" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="L2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="22"/>
-      <c r="X2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="16" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="39"/>
+      <c r="X2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AJ2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="16" t="s">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AJ2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="16" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="16" t="s">
+      <c r="I3" s="29"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16" t="s">
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16" t="s">
+      <c r="R3" s="29"/>
+      <c r="S3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="22"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16" t="s">
+      <c r="T3" s="29"/>
+      <c r="U3" s="39"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16" t="s">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16" t="s">
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AG3" s="16"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="16" t="s">
+      <c r="AG3" s="29"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16" t="s">
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16" t="s">
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AR3" s="16"/>
+      <c r="AR3" s="29"/>
     </row>
     <row r="4" spans="1:44" s="2" customFormat="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="X4" s="13" t="s">
+      <c r="U4" s="39"/>
+      <c r="X4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Y4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="12" t="s">
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AD4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AE4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AF4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AG4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AJ4" s="13" t="s">
+      <c r="AJ4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AK4" s="13" t="s">
+      <c r="AK4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AL4" s="13" t="s">
+      <c r="AL4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AM4" s="12" t="s">
+      <c r="AM4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="12" t="s">
+      <c r="AN4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="12" t="s">
+      <c r="AO4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="12" t="s">
+      <c r="AP4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AQ4" s="12" t="s">
+      <c r="AQ4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AR4" s="12" t="s">
+      <c r="AR4" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="23"/>
-      <c r="L5" s="17" t="s">
+      <c r="I5" s="40"/>
+      <c r="L5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="O5" s="6"/>
@@ -855,17 +957,17 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="25"/>
-      <c r="X5" s="17" t="s">
+      <c r="U5" s="42"/>
+      <c r="X5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="15" t="s">
+      <c r="Z5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AB5" s="6"/>
@@ -874,13 +976,13 @@
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
-      <c r="AJ5" s="17" t="s">
+      <c r="AJ5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AK5" s="14" t="s">
+      <c r="AK5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AL5" s="15" t="s">
+      <c r="AL5" s="28" t="s">
         <v>15</v>
       </c>
       <c r="AM5" s="7"/>
@@ -891,24 +993,24 @@
       <c r="AR5" s="7"/>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="17"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="23"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="14" t="s">
+      <c r="I6" s="40"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="6"/>
@@ -917,15 +1019,15 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="25"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="14" t="s">
+      <c r="U6" s="42"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA6" s="15" t="s">
+      <c r="Z6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AB6" s="6"/>
@@ -934,11 +1036,11 @@
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="14" t="s">
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AL6" s="15" t="s">
+      <c r="AL6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="AM6" s="7"/>
@@ -949,11 +1051,11 @@
       <c r="AR6" s="7"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="17"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="11"/>
@@ -962,11 +1064,11 @@
       <c r="G7" s="4"/>
       <c r="H7" s="11"/>
       <c r="I7" s="4"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="30"/>
+      <c r="M7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="O7" s="6"/>
@@ -975,15 +1077,15 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="25"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="14" t="s">
+      <c r="U7" s="42"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Z7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA7" s="15" t="s">
+      <c r="Z7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AB7" s="6"/>
@@ -992,11 +1094,11 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="14" t="s">
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AL7" s="15" t="s">
+      <c r="AL7" s="28" t="s">
         <v>15</v>
       </c>
       <c r="AM7" s="7"/>
@@ -1007,11 +1109,11 @@
       <c r="AR7" s="7"/>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="17"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="11"/>
@@ -1020,11 +1122,11 @@
       <c r="G8" s="4"/>
       <c r="H8" s="11"/>
       <c r="I8" s="4"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="14" t="s">
+      <c r="L8" s="30"/>
+      <c r="M8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="O8" s="6"/>
@@ -1033,15 +1135,15 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-      <c r="U8" s="25"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="14" t="s">
+      <c r="U8" s="42"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="15" t="s">
+      <c r="Z8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="28" t="s">
         <v>18</v>
       </c>
       <c r="AB8" s="6"/>
@@ -1050,11 +1152,11 @@
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="14" t="s">
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AL8" s="15" t="s">
+      <c r="AL8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="AM8" s="7"/>
@@ -1065,35 +1167,35 @@
       <c r="AR8" s="7"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="24"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="24"/>
-      <c r="L9" s="20" t="s">
+      <c r="I9" s="41"/>
+      <c r="L9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="26"/>
-      <c r="X9" s="20" t="s">
+      <c r="U9" s="43"/>
+      <c r="X9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="13" t="s">
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="23" t="s">
         <v>18</v>
       </c>
       <c r="AB9" s="9">
@@ -1120,11 +1222,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="20" t="s">
+      <c r="AJ9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
       <c r="AM9" s="10"/>
       <c r="AN9" s="10"/>
       <c r="AO9" s="10"/>
@@ -1133,12 +1235,12 @@
       <c r="AR9" s="10"/>
     </row>
     <row r="10" spans="1:44">
-      <c r="X10" s="21" t="s">
+      <c r="X10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="13" t="s">
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="23" t="s">
         <v>18</v>
       </c>
       <c r="AB10" s="9">
@@ -1167,12 +1269,12 @@
       </c>
     </row>
     <row r="11" spans="1:44">
-      <c r="X11" s="19" t="s">
+      <c r="X11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="13" t="s">
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="23" t="s">
         <v>18</v>
       </c>
       <c r="AB11" s="9">
@@ -1201,12 +1303,12 @@
       </c>
     </row>
     <row r="12" spans="1:44">
-      <c r="X12" s="19" t="s">
+      <c r="X12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="13" t="s">
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="23" t="s">
         <v>18</v>
       </c>
       <c r="AB12" s="9">
@@ -1235,12 +1337,12 @@
       </c>
     </row>
     <row r="13" spans="1:44">
-      <c r="X13" s="19" t="s">
+      <c r="X13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="13" t="s">
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="23" t="s">
         <v>18</v>
       </c>
       <c r="AB13" s="9">
@@ -1264,6 +1366,3034 @@
         <v>0</v>
       </c>
       <c r="AG13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="X5:X8"/>
+    <mergeCell ref="AJ5:AJ8"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="X2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="7" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="5" customWidth="1"/>
+    <col min="10" max="11" width="9" style="5"/>
+    <col min="12" max="12" width="7" style="5" customWidth="1"/>
+    <col min="13" max="13" width="21.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="5" customWidth="1"/>
+    <col min="15" max="20" width="6.875" style="5" customWidth="1"/>
+    <col min="21" max="23" width="9" style="5"/>
+    <col min="24" max="24" width="7" style="5" customWidth="1"/>
+    <col min="25" max="25" width="21.625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="5.25" style="5" customWidth="1"/>
+    <col min="27" max="27" width="7.125" style="5" customWidth="1"/>
+    <col min="28" max="28" width="6.625" style="5" customWidth="1"/>
+    <col min="29" max="29" width="5.75" style="5" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="6.375" style="5" customWidth="1"/>
+    <col min="32" max="33" width="6.625" style="5" customWidth="1"/>
+    <col min="34" max="35" width="9" style="5"/>
+    <col min="36" max="36" width="7" style="5" customWidth="1"/>
+    <col min="37" max="37" width="21.625" style="5" customWidth="1"/>
+    <col min="38" max="38" width="5.25" style="5" customWidth="1"/>
+    <col min="39" max="44" width="6.875" style="5" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="1" customFormat="1"/>
+    <row r="2" spans="1:44" s="2" customFormat="1">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="L2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="X2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AJ2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+    </row>
+    <row r="3" spans="1:44" s="2" customFormat="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="29"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="29"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="29"/>
+    </row>
+    <row r="4" spans="1:44" s="2" customFormat="1">
+      <c r="A4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="40"/>
+      <c r="L5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="X5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AJ5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="30"/>
+      <c r="B6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="40"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="30"/>
+      <c r="B7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="4"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="30"/>
+      <c r="B8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="4"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="41"/>
+      <c r="L9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="X9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB9" s="9">
+        <f>SUM(AB5:AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <f t="shared" ref="AC9:AG9" si="0">SUM(AC5:AC8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="X10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB10" s="9">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <f t="shared" ref="AC10:AG10" si="1">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="X11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB11" s="9">
+        <f t="shared" ref="AB11:AG13" si="2">AB6</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="X12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="X13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="X5:X8"/>
+    <mergeCell ref="AJ5:AJ8"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="X2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR13"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" customWidth="1"/>
+    <col min="10" max="11" width="9" style="5"/>
+    <col min="12" max="12" width="14.625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="21.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="5" customWidth="1"/>
+    <col min="15" max="20" width="6.875" style="5" customWidth="1"/>
+    <col min="21" max="23" width="9" style="5"/>
+    <col min="24" max="24" width="14.625" style="5" customWidth="1"/>
+    <col min="25" max="25" width="21.625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="5.25" style="5" customWidth="1"/>
+    <col min="27" max="27" width="7.125" style="5" customWidth="1"/>
+    <col min="28" max="28" width="6.625" style="5" customWidth="1"/>
+    <col min="29" max="29" width="4.75" style="5" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="5.625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="6.625" style="5" customWidth="1"/>
+    <col min="33" max="33" width="5.375" style="5" customWidth="1"/>
+    <col min="34" max="35" width="9" style="5"/>
+    <col min="36" max="36" width="14.625" style="5" customWidth="1"/>
+    <col min="37" max="37" width="21.625" style="5" customWidth="1"/>
+    <col min="38" max="38" width="5.25" style="5" customWidth="1"/>
+    <col min="39" max="44" width="6.875" style="5" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="1" customFormat="1"/>
+    <row r="2" spans="1:44" s="2" customFormat="1">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="L2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="X2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AJ2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+    </row>
+    <row r="3" spans="1:44" s="2" customFormat="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="29"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="29"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="29"/>
+    </row>
+    <row r="4" spans="1:44" s="2" customFormat="1">
+      <c r="A4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="40"/>
+      <c r="L5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="X5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AJ5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="30"/>
+      <c r="B6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="40"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="30"/>
+      <c r="B7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="4"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="30"/>
+      <c r="B8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="4"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="41"/>
+      <c r="L9" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="X9" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB9" s="9">
+        <f>SUM(AB5:AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <f t="shared" ref="AC9:AG9" si="0">SUM(AC5:AC8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="X10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB10" s="9">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <f t="shared" ref="AC10:AG10" si="1">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="X11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB11" s="9">
+        <f t="shared" ref="AB11:AG13" si="2">AB6</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="X12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="X13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="X5:X8"/>
+    <mergeCell ref="AJ5:AJ8"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="X2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR13"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8" style="5" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="5" customWidth="1"/>
+    <col min="10" max="11" width="9" style="5"/>
+    <col min="12" max="12" width="10" style="5" customWidth="1"/>
+    <col min="13" max="13" width="21.625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="5" customWidth="1"/>
+    <col min="15" max="20" width="6.875" style="5" customWidth="1"/>
+    <col min="21" max="23" width="9" style="5"/>
+    <col min="24" max="24" width="10" style="5" customWidth="1"/>
+    <col min="25" max="25" width="21.625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="5.25" style="5" customWidth="1"/>
+    <col min="27" max="27" width="7.125" style="5" customWidth="1"/>
+    <col min="28" max="28" width="6.625" style="5" customWidth="1"/>
+    <col min="29" max="29" width="4.75" style="5" customWidth="1"/>
+    <col min="30" max="30" width="6.625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="4.75" style="5" customWidth="1"/>
+    <col min="32" max="32" width="6.625" style="5" customWidth="1"/>
+    <col min="33" max="33" width="4.75" style="5" customWidth="1"/>
+    <col min="34" max="35" width="9" style="5"/>
+    <col min="36" max="36" width="10" style="5" customWidth="1"/>
+    <col min="37" max="37" width="21.625" style="5" customWidth="1"/>
+    <col min="38" max="38" width="5.25" style="5" customWidth="1"/>
+    <col min="39" max="44" width="6.875" style="5" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="1" customFormat="1"/>
+    <row r="2" spans="1:44" s="2" customFormat="1">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="L2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="X2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AJ2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+    </row>
+    <row r="3" spans="1:44" s="2" customFormat="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="29"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="29"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="29"/>
+    </row>
+    <row r="4" spans="1:44" s="2" customFormat="1">
+      <c r="A4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="40"/>
+      <c r="L5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="X5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AJ5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="30"/>
+      <c r="B6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="40"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="30"/>
+      <c r="B7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="4"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="30"/>
+      <c r="B8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="4"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="41"/>
+      <c r="L9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="X9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB9" s="9">
+        <f>SUM(AB5:AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <f t="shared" ref="AC9:AG9" si="0">SUM(AC5:AC8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="X10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB10" s="9">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <f t="shared" ref="AC10:AG10" si="1">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="X11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB11" s="9">
+        <f t="shared" ref="AB11:AG13" si="2">AB6</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="X12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="X13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="X5:X8"/>
+    <mergeCell ref="AJ5:AJ8"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AJ2:AL3"/>
+    <mergeCell ref="AM2:AR2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="L2:N3"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="X2:Z3"/>
+    <mergeCell ref="AA2:AA4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24" style="16" customWidth="1"/>
+    <col min="3" max="3" width="5.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="16" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="16" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="16" customWidth="1"/>
+    <col min="10" max="11" width="9" style="16"/>
+    <col min="12" max="12" width="11.125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="24" style="16" customWidth="1"/>
+    <col min="14" max="14" width="5.75" style="16" customWidth="1"/>
+    <col min="15" max="15" width="7.25" style="16" customWidth="1"/>
+    <col min="16" max="16" width="7.375" style="16" customWidth="1"/>
+    <col min="17" max="17" width="7.25" style="16" customWidth="1"/>
+    <col min="18" max="18" width="7.375" style="16" customWidth="1"/>
+    <col min="19" max="19" width="7.25" style="16" customWidth="1"/>
+    <col min="20" max="21" width="7.375" style="16" customWidth="1"/>
+    <col min="22" max="23" width="9" style="16"/>
+    <col min="24" max="24" width="11.125" style="16" customWidth="1"/>
+    <col min="25" max="25" width="24" style="16" customWidth="1"/>
+    <col min="26" max="26" width="5.75" style="16" customWidth="1"/>
+    <col min="27" max="27" width="7.125" style="16" customWidth="1"/>
+    <col min="28" max="28" width="7.25" style="16" customWidth="1"/>
+    <col min="29" max="29" width="5.125" style="16" customWidth="1"/>
+    <col min="30" max="30" width="7.25" style="16" customWidth="1"/>
+    <col min="31" max="31" width="5.125" style="16" customWidth="1"/>
+    <col min="32" max="32" width="7.25" style="16" customWidth="1"/>
+    <col min="33" max="33" width="5.125" style="16" customWidth="1"/>
+    <col min="34" max="35" width="9" style="16"/>
+    <col min="36" max="36" width="11.125" style="16" customWidth="1"/>
+    <col min="37" max="37" width="24" style="16" customWidth="1"/>
+    <col min="38" max="38" width="5.75" style="16" customWidth="1"/>
+    <col min="39" max="44" width="7.375" style="16" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" s="12" customFormat="1"/>
+    <row r="2" spans="1:44" s="45" customFormat="1">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="L2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="48"/>
+      <c r="X2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AJ2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+    </row>
+    <row r="3" spans="1:44" s="45" customFormat="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="36"/>
+      <c r="U3" s="48"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="36"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="36"/>
+    </row>
+    <row r="4" spans="1:44" s="45" customFormat="1">
+      <c r="A4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="48"/>
+      <c r="X4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR4" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="46"/>
+      <c r="L5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="49"/>
+      <c r="X5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AJ5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="35"/>
+      <c r="B6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="46"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="49"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="35"/>
+      <c r="B7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="46"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="49"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17"/>
+      <c r="AR7" s="17"/>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="35"/>
+      <c r="B8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="46"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="49"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="47"/>
+      <c r="L9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="50"/>
+      <c r="X9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB9" s="20">
+        <f>SUM(AB5:AB8)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="20">
+        <f t="shared" ref="AC9:AG9" si="0">SUM(AC5:AC8)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="X10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB10" s="20">
+        <f>AB5</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="20">
+        <f t="shared" ref="AC10:AG10" si="1">AC5</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="X11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB11" s="20">
+        <f t="shared" ref="AB11:AG13" si="2">AB6</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="X12" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="X13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
